--- a/Team-Data/2009-10/4-6-2009-10.xlsx
+++ b/Team-Data/2009-10/4-6-2009-10.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -669,19 +736,19 @@
         <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>0.632</v>
+        <v>0.645</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J2" t="n">
         <v>83.09999999999999</v>
@@ -696,61 +763,61 @@
         <v>17.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O2" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P2" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R2" t="n">
         <v>11.8</v>
       </c>
       <c r="S2" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T2" t="n">
         <v>41.7</v>
       </c>
       <c r="U2" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V2" t="n">
         <v>11.9</v>
       </c>
       <c r="W2" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="X2" t="n">
         <v>4.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z2" t="n">
         <v>19.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG2" t="n">
         <v>8</v>
@@ -759,10 +826,10 @@
         <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>10</v>
@@ -777,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
@@ -801,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
         <v>16</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>7</v>
@@ -816,10 +883,10 @@
         <v>28</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -848,55 +915,55 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>0.613</v>
+        <v>0.632</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
         <v>76.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.485</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O3" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P3" t="n">
         <v>25.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.742</v>
+        <v>0.745</v>
       </c>
       <c r="R3" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T3" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="U3" t="n">
         <v>23.7</v>
@@ -905,40 +972,40 @@
         <v>15.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA3" t="n">
         <v>21.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
         <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -950,22 +1017,22 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AM3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP3" t="n">
         <v>10</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -980,13 +1047,13 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
         <v>15</v>
@@ -1001,7 +1068,7 @@
         <v>19</v>
       </c>
       <c r="BC3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -1033,58 +1100,58 @@
         <v>76</v>
       </c>
       <c r="E4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" t="n">
-        <v>0.539</v>
+        <v>0.526</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J4" t="n">
         <v>77</v>
       </c>
       <c r="K4" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M4" t="n">
         <v>16.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.346</v>
+        <v>0.341</v>
       </c>
       <c r="O4" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="P4" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.748</v>
+        <v>0.743</v>
       </c>
       <c r="R4" t="n">
         <v>10.5</v>
       </c>
       <c r="S4" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T4" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="V4" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W4" t="n">
         <v>7.8</v>
@@ -1093,22 +1160,22 @@
         <v>5.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA4" t="n">
         <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1138,31 +1205,31 @@
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW4" t="n">
         <v>8</v>
@@ -1174,16 +1241,16 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA4" t="n">
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="n">
         <v>37</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="n">
-        <v>0.481</v>
+        <v>0.487</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J5" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K5" t="n">
         <v>0.449</v>
@@ -1242,22 +1309,22 @@
         <v>12.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.328</v>
+        <v>0.329</v>
       </c>
       <c r="O5" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P5" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
         <v>0.758</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S5" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T5" t="n">
         <v>44.4</v>
@@ -1269,10 +1336,10 @@
         <v>14.4</v>
       </c>
       <c r="W5" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y5" t="n">
         <v>5.4</v>
@@ -1284,16 +1351,16 @@
         <v>20</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC5" t="n">
         <v>-2</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
@@ -1302,16 +1369,16 @@
         <v>19</v>
       </c>
       <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>10</v>
       </c>
-      <c r="AI5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>30</v>
@@ -1329,7 +1396,7 @@
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR5" t="n">
         <v>12</v>
@@ -1344,28 +1411,28 @@
         <v>19</v>
       </c>
       <c r="AV5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW5" t="n">
         <v>23</v>
       </c>
       <c r="AX5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA5" t="n">
         <v>24</v>
       </c>
-      <c r="AZ5" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>25</v>
-      </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.803</v>
+        <v>0.779</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
       <c r="J6" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.49</v>
+        <v>0.486</v>
       </c>
       <c r="L6" t="n">
         <v>7.4</v>
@@ -1427,52 +1494,52 @@
         <v>0.384</v>
       </c>
       <c r="O6" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="P6" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="R6" t="n">
         <v>9.6</v>
       </c>
       <c r="S6" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U6" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="V6" t="n">
         <v>13.9</v>
       </c>
       <c r="W6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X6" t="n">
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.6</v>
+        <v>102.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1484,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>28</v>
@@ -1505,10 +1572,10 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
         <v>30</v>
@@ -1520,10 +1587,10 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
         <v>11</v>
@@ -1538,10 +1605,10 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" t="n">
         <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.658</v>
+        <v>0.649</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J7" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L7" t="n">
         <v>6.7</v>
@@ -1606,28 +1673,28 @@
         <v>18.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O7" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P7" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>10.3</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T7" t="n">
         <v>41.8</v>
       </c>
       <c r="U7" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V7" t="n">
         <v>13</v>
@@ -1636,7 +1703,7 @@
         <v>7.6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>4.2</v>
@@ -1645,46 +1712,46 @@
         <v>19.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="AC7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD7" t="n">
         <v>2</v>
       </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="n">
         <v>4</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
         <v>14</v>
       </c>
       <c r="AK7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL7" t="n">
         <v>11</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>10</v>
       </c>
       <c r="AM7" t="n">
         <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
         <v>17</v>
@@ -1702,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="AT7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU7" t="n">
         <v>4</v>
@@ -1711,13 +1778,13 @@
         <v>3</v>
       </c>
       <c r="AW7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX7" t="n">
         <v>6</v>
       </c>
       <c r="AY7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
@@ -1726,10 +1793,10 @@
         <v>22</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -1758,34 +1825,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
         <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.645</v>
+        <v>0.649</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="N8" t="n">
         <v>0.358</v>
@@ -1794,7 +1861,7 @@
         <v>23.7</v>
       </c>
       <c r="P8" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="Q8" t="n">
         <v>0.774</v>
@@ -1803,10 +1870,10 @@
         <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U8" t="n">
         <v>21.1</v>
@@ -1815,7 +1882,7 @@
         <v>14</v>
       </c>
       <c r="W8" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>5</v>
@@ -1827,37 +1894,37 @@
         <v>22.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="AC8" t="n">
         <v>4.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL8" t="n">
         <v>12</v>
@@ -1866,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1881,10 +1948,10 @@
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU8" t="n">
         <v>16</v>
@@ -1896,13 +1963,13 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -1955,13 +2022,13 @@
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="J9" t="n">
         <v>80.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L9" t="n">
         <v>4.4</v>
@@ -1970,16 +2037,16 @@
         <v>14.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.311</v>
+        <v>0.31</v>
       </c>
       <c r="O9" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P9" t="n">
         <v>24.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.728</v>
+        <v>0.725</v>
       </c>
       <c r="R9" t="n">
         <v>13</v>
@@ -1991,34 +2058,34 @@
         <v>40.6</v>
       </c>
       <c r="U9" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V9" t="n">
         <v>13.6</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y9" t="n">
         <v>4.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.7</v>
+        <v>93.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.8</v>
+        <v>-5.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>26</v>
@@ -2030,13 +2097,13 @@
         <v>26</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>27</v>
@@ -2051,10 +2118,10 @@
         <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
         <v>27</v>
@@ -2069,13 +2136,13 @@
         <v>24</v>
       </c>
       <c r="AU9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV9" t="n">
         <v>9</v>
       </c>
       <c r="AW9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AX9" t="n">
         <v>27</v>
@@ -2087,7 +2154,7 @@
         <v>26</v>
       </c>
       <c r="BA9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -2137,46 +2204,46 @@
         <v>48.1</v>
       </c>
       <c r="I10" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="J10" t="n">
         <v>86.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L10" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M10" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N10" t="n">
         <v>0.371</v>
       </c>
       <c r="O10" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P10" t="n">
         <v>25.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.784</v>
+        <v>0.78</v>
       </c>
       <c r="R10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T10" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="U10" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V10" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W10" t="n">
         <v>9.300000000000001</v>
@@ -2194,13 +2261,13 @@
         <v>21.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.9</v>
+        <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
@@ -2212,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>7</v>
@@ -2230,10 +2297,10 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP10" t="n">
         <v>11</v>
@@ -2251,10 +2318,10 @@
         <v>30</v>
       </c>
       <c r="AU10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -2304,91 +2371,91 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
         <v>38</v>
       </c>
       <c r="F11" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" t="n">
-        <v>0.507</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J11" t="n">
         <v>84.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L11" t="n">
         <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O11" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P11" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R11" t="n">
         <v>12</v>
       </c>
       <c r="S11" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T11" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U11" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V11" t="n">
         <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X11" t="n">
         <v>3.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA11" t="n">
         <v>22.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>102</v>
+        <v>101.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
         <v>17</v>
@@ -2412,10 +2479,10 @@
         <v>4</v>
       </c>
       <c r="AN11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
         <v>13</v>
@@ -2427,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="AS11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT11" t="n">
         <v>12</v>
@@ -2439,7 +2506,7 @@
         <v>17</v>
       </c>
       <c r="AW11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2448,13 +2515,13 @@
         <v>30</v>
       </c>
       <c r="AZ11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
         <v>2</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BC11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" t="n">
         <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" t="n">
-        <v>0.382</v>
+        <v>0.377</v>
       </c>
       <c r="H12" t="n">
         <v>48.1</v>
@@ -2504,19 +2571,19 @@
         <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
         <v>22.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
         <v>19.1</v>
@@ -2525,7 +2592,7 @@
         <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R12" t="n">
         <v>9.5</v>
@@ -2540,10 +2607,10 @@
         <v>21</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W12" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X12" t="n">
         <v>5.4</v>
@@ -2552,19 +2619,19 @@
         <v>5.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>-3.1</v>
+        <v>-3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,13 +2643,13 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>28</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
@@ -2612,19 +2679,19 @@
         <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU12" t="n">
         <v>17</v>
       </c>
       <c r="AV12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2633,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>16</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -2668,64 +2735,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E13" t="n">
         <v>27</v>
       </c>
       <c r="F13" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
-        <v>0.36</v>
+        <v>0.351</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
       </c>
       <c r="I13" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J13" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="L13" t="n">
         <v>5.9</v>
       </c>
       <c r="M13" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N13" t="n">
         <v>0.331</v>
       </c>
       <c r="O13" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.733</v>
+        <v>0.73</v>
       </c>
       <c r="R13" t="n">
         <v>11.5</v>
       </c>
       <c r="S13" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T13" t="n">
         <v>41.8</v>
       </c>
       <c r="U13" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V13" t="n">
         <v>15.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
         <v>5.7</v>
@@ -2734,25 +2801,25 @@
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF13" t="n">
         <v>23</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>22</v>
       </c>
       <c r="AG13" t="n">
         <v>23</v>
@@ -2767,7 +2834,7 @@
         <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
         <v>20</v>
@@ -2779,10 +2846,10 @@
         <v>27</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ13" t="n">
         <v>26</v>
@@ -2791,25 +2858,25 @@
         <v>13</v>
       </c>
       <c r="AS13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU13" t="n">
         <v>9</v>
       </c>
       <c r="AV13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
         <v>3</v>
@@ -2818,7 +2885,7 @@
         <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="n">
         <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.711</v>
+        <v>0.714</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
@@ -2871,40 +2938,40 @@
         <v>83.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L14" t="n">
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N14" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O14" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R14" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S14" t="n">
         <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
         <v>21.2</v>
       </c>
       <c r="V14" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
         <v>7.6</v>
@@ -2919,7 +2986,7 @@
         <v>19.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
         <v>102.1</v>
@@ -2928,7 +2995,7 @@
         <v>5.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2940,10 +3007,10 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ14" t="n">
         <v>8</v>
@@ -2964,13 +3031,13 @@
         <v>16</v>
       </c>
       <c r="AP14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
         <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS14" t="n">
         <v>4</v>
@@ -2979,13 +3046,13 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
         <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX14" t="n">
         <v>18</v>
@@ -3003,7 +3070,7 @@
         <v>8</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -3047,52 +3114,52 @@
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="J15" t="n">
-        <v>84.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.471</v>
+        <v>0.469</v>
       </c>
       <c r="L15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="M15" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O15" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P15" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R15" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S15" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T15" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U15" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y15" t="n">
         <v>6.1</v>
@@ -3101,16 +3168,16 @@
         <v>20.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3122,16 +3189,16 @@
         <v>16</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI15" t="n">
         <v>3</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3140,13 +3207,13 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
         <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ15" t="n">
         <v>25</v>
@@ -3170,7 +3237,7 @@
         <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AY15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
         <v>34</v>
       </c>
       <c r="G16" t="n">
-        <v>0.553</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P16" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R16" t="n">
         <v>10.6</v>
@@ -3268,10 +3335,10 @@
         <v>18.9</v>
       </c>
       <c r="V16" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W16" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X16" t="n">
         <v>5.7</v>
@@ -3280,52 +3347,52 @@
         <v>4.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA16" t="n">
         <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM16" t="n">
         <v>17</v>
       </c>
-      <c r="AM16" t="n">
-        <v>16</v>
-      </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
         <v>20</v>
@@ -3337,7 +3404,7 @@
         <v>19</v>
       </c>
       <c r="AS16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT16" t="n">
         <v>14</v>
@@ -3349,25 +3416,25 @@
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AX16" t="n">
         <v>4</v>
       </c>
       <c r="AY16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
         <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -3396,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" t="n">
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.553</v>
       </c>
       <c r="H17" t="n">
         <v>48.8</v>
       </c>
       <c r="I17" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="J17" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L17" t="n">
         <v>7.8</v>
       </c>
       <c r="M17" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O17" t="n">
         <v>15.3</v>
       </c>
       <c r="P17" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="Q17" t="n">
         <v>0.752</v>
@@ -3462,34 +3529,34 @@
         <v>5.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC17" t="n">
         <v>1.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF17" t="n">
         <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
         <v>1</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
@@ -3504,7 +3571,7 @@
         <v>5</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
         <v>30</v>
@@ -3516,31 +3583,31 @@
         <v>18</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AX17" t="n">
         <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA17" t="n">
         <v>20</v>
@@ -3549,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -3578,73 +3645,73 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
         <v>62</v>
       </c>
       <c r="G18" t="n">
-        <v>0.184</v>
+        <v>0.195</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M18" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O18" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P18" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q18" t="n">
         <v>0.744</v>
       </c>
       <c r="R18" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S18" t="n">
         <v>31.4</v>
       </c>
       <c r="T18" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U18" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V18" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X18" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA18" t="n">
         <v>20.4</v>
@@ -3653,10 +3720,10 @@
         <v>98.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3668,16 +3735,16 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>3</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>26</v>
@@ -3692,19 +3759,19 @@
         <v>25</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
         <v>22</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>11</v>
       </c>
       <c r="AT18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU18" t="n">
         <v>24</v>
@@ -3713,13 +3780,13 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" t="n">
         <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G19" t="n">
-        <v>0.145</v>
+        <v>0.143</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
@@ -3784,46 +3851,46 @@
         <v>0.429</v>
       </c>
       <c r="L19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M19" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.326</v>
+        <v>0.324</v>
       </c>
       <c r="O19" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P19" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="R19" t="n">
         <v>10.8</v>
       </c>
       <c r="S19" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T19" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="U19" t="n">
         <v>18.8</v>
       </c>
       <c r="V19" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W19" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z19" t="n">
         <v>20.1</v>
@@ -3835,10 +3902,10 @@
         <v>91.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3874,10 +3941,10 @@
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR19" t="n">
         <v>16</v>
@@ -3892,22 +3959,22 @@
         <v>29</v>
       </c>
       <c r="AV19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY19" t="n">
         <v>18</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>19</v>
       </c>
       <c r="AZ19" t="n">
         <v>11</v>
       </c>
       <c r="BA19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" t="n">
         <v>35</v>
       </c>
       <c r="F20" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20" t="n">
-        <v>0.455</v>
+        <v>0.449</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,46 +4027,46 @@
         <v>38.5</v>
       </c>
       <c r="J20" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K20" t="n">
         <v>0.461</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O20" t="n">
         <v>15.7</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="R20" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S20" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U20" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V20" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
         <v>3.7</v>
@@ -4014,10 +4081,10 @@
         <v>19.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.7</v>
+        <v>-2.9</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4035,13 +4102,13 @@
         <v>14</v>
       </c>
       <c r="AI20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ20" t="n">
         <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4059,19 +4126,19 @@
         <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
         <v>26</v>
       </c>
       <c r="AU20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC20" t="n">
         <v>20</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -4127,13 +4194,13 @@
         <v>76</v>
       </c>
       <c r="E21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" t="n">
-        <v>0.368</v>
+        <v>0.355</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4145,13 +4212,13 @@
         <v>84</v>
       </c>
       <c r="K21" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L21" t="n">
         <v>8.9</v>
       </c>
       <c r="M21" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="N21" t="n">
         <v>0.342</v>
@@ -4169,19 +4236,19 @@
         <v>10</v>
       </c>
       <c r="S21" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T21" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U21" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V21" t="n">
         <v>14.1</v>
       </c>
       <c r="W21" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X21" t="n">
         <v>3.9</v>
@@ -4190,19 +4257,19 @@
         <v>4.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="n">
         <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4217,13 +4284,13 @@
         <v>4</v>
       </c>
       <c r="AI21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4247,7 +4314,7 @@
         <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT21" t="n">
         <v>25</v>
@@ -4265,10 +4332,10 @@
         <v>26</v>
       </c>
       <c r="AY21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -4309,13 +4376,13 @@
         <v>76</v>
       </c>
       <c r="E22" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" t="n">
-        <v>0.618</v>
+        <v>0.632</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,31 +4391,31 @@
         <v>37.3</v>
       </c>
       <c r="J22" t="n">
-        <v>80.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.462</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M22" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O22" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="P22" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.806</v>
+        <v>0.804</v>
       </c>
       <c r="R22" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S22" t="n">
         <v>31.9</v>
@@ -4357,34 +4424,34 @@
         <v>43.6</v>
       </c>
       <c r="U22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W22" t="n">
         <v>8.1</v>
       </c>
       <c r="X22" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
         <v>9</v>
@@ -4396,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
         <v>13</v>
@@ -4420,31 +4487,31 @@
         <v>2</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
         <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW22" t="n">
         <v>6</v>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY22" t="n">
         <v>14</v>
@@ -4453,13 +4520,13 @@
         <v>20</v>
       </c>
       <c r="BA22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" t="n">
         <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>0.697</v>
+        <v>0.701</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J23" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L23" t="n">
         <v>10.1</v>
@@ -4518,16 +4585,16 @@
         <v>27.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.369</v>
+        <v>0.371</v>
       </c>
       <c r="O23" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P23" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
       <c r="R23" t="n">
         <v>9.9</v>
@@ -4539,34 +4606,34 @@
         <v>43.4</v>
       </c>
       <c r="U23" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W23" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X23" t="n">
         <v>5.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4581,13 +4648,13 @@
         <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
         <v>26</v>
@@ -4617,7 +4684,7 @@
         <v>5</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
         <v>14</v>
@@ -4638,7 +4705,7 @@
         <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BC23" t="n">
         <v>2</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -4688,7 +4755,7 @@
         <v>37.4</v>
       </c>
       <c r="J24" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K24" t="n">
         <v>0.456</v>
@@ -4700,43 +4767,43 @@
         <v>16.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O24" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P24" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R24" t="n">
         <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U24" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V24" t="n">
         <v>14.6</v>
       </c>
       <c r="W24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>5.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA24" t="n">
         <v>18.8</v>
@@ -4748,13 +4815,13 @@
         <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>24</v>
       </c>
       <c r="AF24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
         <v>24</v>
@@ -4763,13 +4830,13 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4781,13 +4848,13 @@
         <v>26</v>
       </c>
       <c r="AO24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR24" t="n">
         <v>9</v>
@@ -4796,7 +4863,7 @@
         <v>26</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>18</v>
@@ -4805,25 +4872,25 @@
         <v>18</v>
       </c>
       <c r="AW24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY24" t="n">
         <v>5</v>
       </c>
-      <c r="AX24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>4</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" t="n">
         <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>0.645</v>
+        <v>0.649</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
@@ -4870,19 +4937,19 @@
         <v>40.8</v>
       </c>
       <c r="J25" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.492</v>
       </c>
       <c r="L25" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.41</v>
+        <v>0.411</v>
       </c>
       <c r="O25" t="n">
         <v>19.9</v>
@@ -4891,19 +4958,19 @@
         <v>25.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R25" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U25" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V25" t="n">
         <v>14.8</v>
@@ -4927,19 +4994,19 @@
         <v>110.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH25" t="n">
         <v>25</v>
@@ -4951,10 +5018,10 @@
         <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM25" t="n">
         <v>6</v>
@@ -4963,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP25" t="n">
         <v>9</v>
@@ -4975,7 +5042,7 @@
         <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT25" t="n">
         <v>8</v>
@@ -4984,19 +5051,19 @@
         <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW25" t="n">
         <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5005,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="BC25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" t="n">
         <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>0.605</v>
+        <v>0.61</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5052,19 +5119,19 @@
         <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
         <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N26" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O26" t="n">
         <v>19.9</v>
@@ -5073,46 +5140,46 @@
         <v>25.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
       <c r="R26" t="n">
         <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T26" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="U26" t="n">
         <v>20.3</v>
       </c>
       <c r="V26" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="W26" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="AC26" t="n">
         <v>3.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>11</v>
@@ -5124,16 +5191,16 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ26" t="n">
         <v>26</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>17</v>
@@ -5145,7 +5212,7 @@
         <v>13</v>
       </c>
       <c r="AO26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP26" t="n">
         <v>12</v>
@@ -5169,7 +5236,7 @@
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>24</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -5231,31 +5298,31 @@
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J27" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L27" t="n">
         <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O27" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.722</v>
+        <v>0.724</v>
       </c>
       <c r="R27" t="n">
         <v>11.9</v>
@@ -5267,7 +5334,7 @@
         <v>42.8</v>
       </c>
       <c r="U27" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V27" t="n">
         <v>15.2</v>
@@ -5279,22 +5346,22 @@
         <v>4.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.3</v>
+        <v>-4.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI27" t="n">
         <v>13</v>
@@ -5318,25 +5385,25 @@
         <v>20</v>
       </c>
       <c r="AL27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
         <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
         <v>17</v>
       </c>
       <c r="AQ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS27" t="n">
         <v>14</v>
@@ -5348,7 +5415,7 @@
         <v>20</v>
       </c>
       <c r="AV27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW27" t="n">
         <v>22</v>
@@ -5366,7 +5433,7 @@
         <v>19</v>
       </c>
       <c r="BB27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -5413,13 +5480,13 @@
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L28" t="n">
         <v>6.7</v>
@@ -5428,16 +5495,16 @@
         <v>18.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O28" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P28" t="n">
         <v>23.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.747</v>
+        <v>0.746</v>
       </c>
       <c r="R28" t="n">
         <v>10.8</v>
@@ -5446,10 +5513,10 @@
         <v>31.9</v>
       </c>
       <c r="T28" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U28" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V28" t="n">
         <v>13.6</v>
@@ -5458,40 +5525,40 @@
         <v>6.2</v>
       </c>
       <c r="X28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y28" t="n">
         <v>5.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA28" t="n">
         <v>20.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI28" t="n">
         <v>9</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>10</v>
       </c>
       <c r="AJ28" t="n">
         <v>18</v>
@@ -5500,22 +5567,22 @@
         <v>6</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>11</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR28" t="n">
         <v>18</v>
@@ -5527,7 +5594,7 @@
         <v>10</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
         <v>8</v>
@@ -5536,22 +5603,22 @@
         <v>26</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA28" t="n">
         <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -5583,97 +5650,97 @@
         <v>76</v>
       </c>
       <c r="E29" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F29" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="n">
-        <v>0.487</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J29" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.48</v>
       </c>
       <c r="L29" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M29" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N29" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O29" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="P29" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R29" t="n">
         <v>10</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U29" t="n">
         <v>21.7</v>
       </c>
       <c r="V29" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W29" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB29" t="n">
         <v>103.9</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI29" t="n">
         <v>6</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>5</v>
       </c>
       <c r="AJ29" t="n">
         <v>21</v>
@@ -5691,7 +5758,7 @@
         <v>3</v>
       </c>
       <c r="AO29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP29" t="n">
         <v>8</v>
@@ -5700,16 +5767,16 @@
         <v>13</v>
       </c>
       <c r="AR29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV29" t="n">
         <v>10</v>
@@ -5718,22 +5785,22 @@
         <v>30</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB29" t="n">
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -5765,46 +5832,46 @@
         <v>77</v>
       </c>
       <c r="E30" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.662</v>
+        <v>0.649</v>
       </c>
       <c r="H30" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J30" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
-        <v>0.492</v>
+        <v>0.491</v>
       </c>
       <c r="L30" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M30" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O30" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P30" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="Q30" t="n">
         <v>0.738</v>
       </c>
       <c r="R30" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S30" t="n">
         <v>31.4</v>
@@ -5819,7 +5886,7 @@
         <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>5</v>
@@ -5828,19 +5895,19 @@
         <v>5.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA30" t="n">
         <v>22.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>104.5</v>
+        <v>104</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>4</v>
@@ -5852,7 +5919,7 @@
         <v>4</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
         <v>4</v>
@@ -5861,7 +5928,7 @@
         <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5870,10 +5937,10 @@
         <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP30" t="n">
         <v>2</v>
@@ -5894,19 +5961,19 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
@@ -5959,70 +6026,70 @@
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J31" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L31" t="n">
         <v>5.2</v>
       </c>
       <c r="M31" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O31" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P31" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
         <v>29.9</v>
       </c>
       <c r="T31" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U31" t="n">
         <v>18.7</v>
       </c>
       <c r="V31" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W31" t="n">
         <v>6.1</v>
       </c>
       <c r="X31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y31" t="n">
         <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA31" t="n">
         <v>20.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-4.8</v>
+        <v>-4.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>26</v>
@@ -6052,22 +6119,22 @@
         <v>23</v>
       </c>
       <c r="AN31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP31" t="n">
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
         <v>17</v>
@@ -6085,7 +6152,7 @@
         <v>11</v>
       </c>
       <c r="AY31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ31" t="n">
         <v>21</v>
@@ -6094,7 +6161,7 @@
         <v>17</v>
       </c>
       <c r="BB31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-6-2009-10</t>
+          <t>2010-04-06</t>
         </is>
       </c>
     </row>
